--- a/5sem/etl/jupyterlab/chart-file.xlsx
+++ b/5sem/etl/jupyterlab/chart-file.xlsx
@@ -1,58 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuehe\Documents\GitHub\study\5sem\etl\jupyterlab\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F895E3-F1C9-4109-A712-FA6F8D1BF7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="17535" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Batch 1</t>
-  </si>
-  <si>
-    <t>Batch 2</t>
-  </si>
-  <si>
-    <t>Batch 3</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -70,96 +48,124 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="113"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="13"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Line Chart</a:t>
             </a:r>
           </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Batch 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
             <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
+          </spPr>
+          <marker>
+            <symbol val="triangle"/>
+            <spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -169,290 +175,162 @@
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet!$B$2:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-901D-453D-873D-303061D4616A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Batch 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet'!$B$2:$B$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
             <a:ln w="100050">
               <a:solidFill>
                 <a:srgbClr val="00AAAA"/>
               </a:solidFill>
               <a:prstDash val="sysDot"/>
             </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet!$C$2:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-901D-453D-873D-303061D4616A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Batch 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet'!$C$2:$C$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet!$D$2:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-901D-453D-873D-303061D4616A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="10"/>
-        <c:axId val="100"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="10"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet'!$D$2:$D$7</f>
+            </numRef>
+          </val>
+          <smooth val="1"/>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
               <a:bodyPr/>
-              <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
                   <a:t>Test Number</a:t>
                 </a:r>
               </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="100"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
               <a:bodyPr/>
-              <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
                   <a:t>Size</a:t>
                 </a:r>
               </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -739,114 +617,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="10.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Batch 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Batch 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Batch 3</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>42248</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>40</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>30</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>42249</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>40</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>25</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>42250</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>50</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>30</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>42251</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>30</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>25</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>42252</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>25</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>35</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>42253</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>20</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>40</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>35</v>
       </c>
     </row>
